--- a/test/data/refactoring.xlsx
+++ b/test/data/refactoring.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AB615-834D-4CB6-82E9-1A88212C884F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{DEFCB88B-A9E5-47CF-A8C2-90D09E378B57}"/>
+    <workbookView xWindow="6720" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="2" r:id="rId1"/>
     <sheet name="vector" sheetId="3" r:id="rId2"/>
     <sheet name="vector_dict" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>d1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,12 +128,52 @@
   </si>
   <si>
     <t>A2_1;A2_2;A2_3</t>
+  </si>
+  <si>
+    <t>e(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;11;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1.e2b(Float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1b.[1,d2a]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1c.d2.[1,d3b]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1c.d2.[1,d3a]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1b.[2,d2b()]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F1ADEC-CE98-49C6-B1DF-C2D4DB9AD9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,16 +601,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84345DA1-F336-4CB0-955D-B45F32441A95}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -587,8 +633,14 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -604,8 +656,14 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -620,6 +678,12 @@
       </c>
       <c r="E3" t="s">
         <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -630,13 +694,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF7CF-509F-44E2-B52B-FBD155626389}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/data/refactoring.xlsx
+++ b/test/data/refactoring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON2\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>d1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>d1b.[2,d2b()]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1c.d2.[2,d3a(Float)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +718,7 @@
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +734,11 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -739,8 +754,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -755,6 +773,9 @@
       </c>
       <c r="E3" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/refactoring.xlsx
+++ b/test/data/refactoring.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB12463-4063-4B0B-9ADC-DD01AC1CC007}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="735" yWindow="3375" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="2" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>d1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,58 +178,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.b.c.d.e.f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.b.c2(Int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.d.c.d.e.f.[1,Type]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.d.c.d.e.f.[1,Amount]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.d.c.d.e.f.[2,Type]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.d.c.d.e.f.[2,Amount]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.d.c.d.e.f.[2,Vec()]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인셉션!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100;200;300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런것;충분히;가능</t>
+    <t>Cake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chocolate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingredient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b2(Int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b3.[1,Type]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b3.[1,Amount]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b3.[2,Type]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b3.[2,Amount]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b3.[3,Type]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b3.[3,Amount()]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fooood</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,11 +766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,63 +845,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1">
-        <v>200</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>